--- a/NKM_TOYBOX/inf/design.xlsx
+++ b/NKM_TOYBOX/inf/design.xlsx
@@ -668,7 +668,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -811,945 +811,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1761,63 +822,63 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_6" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_5" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_4" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml1_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_6" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_5" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml2_4" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="n12k4_m3_ml0_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13615,6 +12676,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13622,7 +12684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
@@ -39491,77 +38553,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:BA8 AL10:BA17 AL9:AX9 AZ9:BA9">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:AI17">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164:Q167 J168:Q171 N172:Q175">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164:Q167 J168:Q171 N172:Q175">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:E179 F172:I179 J176:M179">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T168:W179 X172:AA179 AB176:AE179 X164:AI167 AB168:AI171 AF172:AI175">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP164:BA167 AT168:BA171 AX172:BA175 AL168:AO179 AP172:AS179 AT176:AW179 BH164:BS167 BL168:BS171 BP172:BS175 BD168:BG179 BH172:BK179 BL176:BO179">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182:Q185 J186:Q189 N190:Q193 B186:E197 F190:I197 J194:M197">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X182:AI185 AB186:AI189 AF190:AI193 T186:W197 X190:AA197 AB194:AE197">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL186:AO197 AP190:AS197 AT194:AW197 AX182:BA193 AT182:AW189 AP182:AS185">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH182:BS185 BL186:BS189 BP190:BS193 BD186:BG197 BH190:BK197 BL194:BO197">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200:Q203 J204:Q207 N208:Q211 B204:E215 F208:I215 J212:M215">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X200:AI203 AB204:AI207 AF208:AI211 T204:W215 X208:AA215 AB212:AE215">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP200:BA203 AT204:BA207 AX208:BA211 AL204:AO215 AP208:AS215 AT212:AW215">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
